--- a/data/trans_camb/P2C_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R2-Provincia-trans_camb.xlsx
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>10,63</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-28,89</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>12,82</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-34,6</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>11,76</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-31,7</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,65; 18,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,23; 11,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,88; -22,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,79; 21,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,69; 7,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,71; -27,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,65; 18,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,03; 7,3</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,7; -27,12</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,62%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-83,17%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,72%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-80,2%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,26%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,61%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,37; 59,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,76; 36,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,0; -73,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,01; 54,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,69; 19,44</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,36; -73,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,3; 51,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,0; 20,49</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,18; -76,2</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,89</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,25</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,68</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,13</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,79</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,47</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,75</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,9; 27,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,54; 9,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,59; -7,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,74; 25,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,4; 8,83</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,6; -5,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,14; 24,89</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,41; 7,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,39; -8,32</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>95,05%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,86%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,22%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,89%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,58%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>61,64; 139,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,74; 46,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,28; -36,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,34; 93,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,12; 31,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,8; -20,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>55,02; 99,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,46; 29,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,79; -32,94</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,69</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,63</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,06</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,33</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,4</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,49</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,07</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,48</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-22,26</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,58; 18,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,11; -1,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,33; -15,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,96; 22,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,98; 1,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,06; -16,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,14; 18,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,35; -1,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,8; -18,16</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,37%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,39%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-64,72%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,9%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,1%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,92%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,42%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,56%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-63,73%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,66; 60,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,83; -3,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,4; -51,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,45; 69,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,87; 4,52</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,05; -50,19</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,51; 57,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,06; -4,48</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,39; -56,38</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,74</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,48</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,45</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-25,15</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,07</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,64</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,28; 28,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,61; 7,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,78; -6,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,79; 23,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,26; 8,18</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,96; -19,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,95; 24,27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,89; 6,35</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,17; -14,8</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,42%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,77%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,41%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,5%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-65,58%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,47%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,15%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,59; 111,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,69; 29,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-63,42; -24,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,15; 68,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,32; 22,96</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,21; -54,35</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,17; 77,9</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,56; 20,28</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,92; -47,44</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,37</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,38</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,5</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,14</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,6</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,03</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>25,29</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,99</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,93</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,74; 34,69</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,32; 28,04</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,59; -5,16</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,52; 35,02</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,74; 25,64</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,73; -13,78</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,63; 30,95</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,02; 24,37</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,19; -11,72</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>104,62%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,19%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,67%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,87%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,54%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-69,09%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,99%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,87%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-62,93%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>55,27; 187,06</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,7; 143,88</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,89; -26,98</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,77; 137,68</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,48; 100,57</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,96; -55,51</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>62,28; 130,59</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,32; 100,67</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,83; -50,86</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,81</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,45</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,91</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,76</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,93</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,64</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,12; 18,76</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,71; 2,66</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,58; -10,58</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,55; 30,33</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,61; 11,82</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,89; 1,12</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,61; 21,64</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,66; 4,77</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,47; -6,41</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,92%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-17,09%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-49,66%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,41%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,58%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,4%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,36%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,09%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,75; 61,24</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,31; 8,6</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,49; -33,02</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,35; 120,96</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,95; 44,67</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,92; 5,33</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,48; 74,6</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,42; 16,12</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,22; -22,34</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,6</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-23,53</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,27</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,69</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,56</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,39</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,5</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,79</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,04; 21,33</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,76; 2,91</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,52; -19,31</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,09; 14,91</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,43; 2,74</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,15; 28,21</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,2; 16,19</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,2; 1,35</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,8; 15,53</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,06%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,19%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-81,56%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,68%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,88%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,41%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,31%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,32%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,36%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,45; 83,66</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,21; 10,96</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-87,64; -72,65</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,78; 41,02</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,98; 7,57</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,77; 74,8</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,95; 50,98</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,26; 4,13</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,06; 47,31</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,71</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,13</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,44</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,56</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,52</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,23</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,94</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,17</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,97; 17,8</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,34; 11,95</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,9; -5,47</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,33; 24,49</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,63; 19,25</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,59; 4,59</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,85; 19,69</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,71; 14,35</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,64; -2,24</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,11%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,75%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,17%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,38%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,04%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,03%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,35%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,63%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,01%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,59; 67,03</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,29; 45,16</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,77; -19,53</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,39; 86,6</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,89; 66,89</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,77; 16,22</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,01; 70,01</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,93; 50,6</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,24; -7,93</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,62</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,22</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,06</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,22</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,16</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,36</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-15,07</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,37; 17,95</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,15; 4,51</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,27; -15,13</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,45; 19,47</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,73; 6,38</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,43; -0,03</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,77; 18,16</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,38; 4,67</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,18; -7,18</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,58%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-59,07%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,4%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-38,12%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,32%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,11%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-47,26%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>44,03; 63,77</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,46; 16,23</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-68,59; -54,22</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,18; 57,83</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,78; 19,03</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,74; 0,86</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,14; 58,5</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,98; 14,9</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,58; -22,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2C_R2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R2-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,65; 18,31</t>
+          <t>2,39; 19,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 11,42</t>
+          <t>-5,03; 11,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-34,88; -22,58</t>
+          <t>-34,89; -22,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,79; 21,81</t>
+          <t>4,79; 21,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 7,42</t>
+          <t>-10,58; 6,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-41,71; -27,64</t>
+          <t>-41,97; -28,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,65; 18,48</t>
+          <t>6,48; 19,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,03; 7,3</t>
+          <t>-5,37; 6,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-36,7; -27,12</t>
+          <t>-36,41; -26,99</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,37; 59,23</t>
+          <t>6,09; 63,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,76; 36,86</t>
+          <t>-12,83; 39,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-90,0; -73,64</t>
+          <t>-89,8; -73,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,01; 54,59</t>
+          <t>9,73; 56,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,69; 19,44</t>
+          <t>-22,11; 17,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-86,36; -73,07</t>
+          <t>-85,7; -72,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,3; 51,07</t>
+          <t>14,92; 53,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,0; 20,49</t>
+          <t>-12,73; 18,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-86,18; -76,2</t>
+          <t>-86,02; -76,31</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,9; 27,72</t>
+          <t>15,46; 27,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 9,26</t>
+          <t>-1,63; 9,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,59; -7,62</t>
+          <t>-17,35; -7,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,74; 25,52</t>
+          <t>13,57; 25,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 8,83</t>
+          <t>-2,56; 9,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-16,6; -5,75</t>
+          <t>-16,39; -6,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,14; 24,89</t>
+          <t>16,85; 25,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 7,47</t>
+          <t>-0,65; 7,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-15,39; -8,32</t>
+          <t>-15,27; -8,17</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>61,64; 139,17</t>
+          <t>60,02; 138,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 46,98</t>
+          <t>-5,78; 44,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-67,28; -36,02</t>
+          <t>-67,64; -35,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>41,34; 93,87</t>
+          <t>40,07; 92,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,12; 31,68</t>
+          <t>-7,43; 32,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-48,8; -20,29</t>
+          <t>-48,27; -21,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>55,02; 99,75</t>
+          <t>57,56; 101,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 29,93</t>
+          <t>-2,27; 30,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-52,79; -32,94</t>
+          <t>-52,81; -32,78</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,58; 18,01</t>
+          <t>2,9; 18,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,11; -1,13</t>
+          <t>-14,91; -0,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-28,33; -15,77</t>
+          <t>-28,41; -15,45</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,96; 22,67</t>
+          <t>7,68; 22,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,98; 1,48</t>
+          <t>-12,79; 1,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-28,06; -16,13</t>
+          <t>-28,63; -16,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,14; 18,85</t>
+          <t>7,85; 18,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,35; -1,41</t>
+          <t>-11,3; -1,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-26,8; -18,16</t>
+          <t>-26,83; -17,76</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,66; 60,09</t>
+          <t>7,57; 61,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-39,83; -3,63</t>
+          <t>-39,4; -2,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-75,4; -51,68</t>
+          <t>-74,64; -49,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>19,45; 69,87</t>
+          <t>19,14; 69,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-32,87; 4,52</t>
+          <t>-31,76; 6,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-71,05; -50,19</t>
+          <t>-71,96; -52,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>21,51; 57,86</t>
+          <t>20,42; 59,17</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-30,06; -4,48</t>
+          <t>-30,09; -4,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-71,39; -56,38</t>
+          <t>-71,13; -55,16</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,28; 28,09</t>
+          <t>13,14; 27,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,61; 7,58</t>
+          <t>-5,52; 7,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-20,78; -6,47</t>
+          <t>-20,74; -6,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,79; 23,97</t>
+          <t>9,83; 24,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 8,18</t>
+          <t>-5,62; 8,31</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-32,96; -19,42</t>
+          <t>-31,99; -18,78</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,95; 24,27</t>
+          <t>14,01; 24,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 6,35</t>
+          <t>-3,94; 6,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-25,17; -14,8</t>
+          <t>-25,47; -14,97</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>40,59; 111,72</t>
+          <t>39,98; 110,42</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-17,69; 29,53</t>
+          <t>-17,58; 28,9</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-63,42; -24,78</t>
+          <t>-64,18; -25,26</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>25,15; 68,25</t>
+          <t>23,62; 72,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 22,96</t>
+          <t>-13,57; 24,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-80,21; -54,35</t>
+          <t>-78,66; -53,35</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>38,17; 77,9</t>
+          <t>38,43; 79,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 20,28</t>
+          <t>-10,45; 19,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-69,92; -47,44</t>
+          <t>-70,64; -47,28</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>15,74; 34,69</t>
+          <t>12,84; 32,77</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10,32; 28,04</t>
+          <t>9,84; 27,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-19,59; -5,16</t>
+          <t>-19,23; -5,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>16,52; 35,02</t>
+          <t>16,54; 35,35</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,74; 25,64</t>
+          <t>7,24; 25,68</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-29,73; -13,78</t>
+          <t>-29,52; -13,81</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>18,63; 30,95</t>
+          <t>18,59; 31,35</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>12,02; 24,37</t>
+          <t>11,87; 23,96</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-22,19; -11,72</t>
+          <t>-22,02; -11,98</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>55,27; 187,06</t>
+          <t>43,48; 171,5</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>36,7; 143,88</t>
+          <t>35,48; 149,48</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-70,89; -26,98</t>
+          <t>-70,19; -28,19</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>45,77; 137,68</t>
+          <t>46,88; 138,07</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>21,48; 100,57</t>
+          <t>18,84; 100,04</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-83,96; -55,51</t>
+          <t>-84,16; -54,19</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>62,28; 130,59</t>
+          <t>62,64; 132,64</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>39,32; 100,67</t>
+          <t>39,0; 101,52</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-75,83; -50,86</t>
+          <t>-75,15; -51,32</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,12; 18,76</t>
+          <t>1,81; 17,99</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-13,71; 2,66</t>
+          <t>-13,28; 2,87</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-24,58; -10,58</t>
+          <t>-24,52; -10,77</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>13,55; 30,33</t>
+          <t>13,59; 28,95</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 11,82</t>
+          <t>-4,32; 12,14</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 1,12</t>
+          <t>-12,73; 1,35</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>9,61; 21,64</t>
+          <t>9,64; 21,45</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,66; 4,77</t>
+          <t>-6,59; 4,1</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-16,47; -6,41</t>
+          <t>-16,75; -6,71</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>2,75; 61,24</t>
+          <t>4,54; 57,04</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-35,31; 8,6</t>
+          <t>-34,52; 10,13</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-62,49; -33,02</t>
+          <t>-61,93; -33,27</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>40,35; 120,96</t>
+          <t>41,41; 117,68</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-13,95; 44,67</t>
+          <t>-13,17; 49,4</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-37,92; 5,33</t>
+          <t>-37,71; 6,12</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>27,48; 74,6</t>
+          <t>27,04; 71,23</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-19,42; 16,12</t>
+          <t>-19,01; 13,93</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-47,22; -22,34</t>
+          <t>-47,7; -22,41</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>10,04; 21,33</t>
+          <t>10,09; 20,61</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 2,91</t>
+          <t>-7,45; 2,72</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-27,52; -19,31</t>
+          <t>-27,64; -18,44</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>4,09; 14,91</t>
+          <t>4,37; 15,12</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 2,74</t>
+          <t>-7,81; 3,02</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-33,15; 28,21</t>
+          <t>-32,98; 22,28</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>8,2; 16,19</t>
+          <t>8,23; 16,21</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 1,35</t>
+          <t>-6,22; 1,07</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-28,8; 15,53</t>
+          <t>-28,85; 16,22</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>31,45; 83,66</t>
+          <t>31,25; 78,19</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-24,21; 10,96</t>
+          <t>-23,1; 10,18</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-87,64; -72,65</t>
+          <t>-87,53; -70,72</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>9,78; 41,02</t>
+          <t>10,24; 41,69</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-19,98; 7,57</t>
+          <t>-18,7; 8,54</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-82,77; 74,8</t>
+          <t>-82,82; 60,28</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>22,95; 50,98</t>
+          <t>22,42; 50,0</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-17,26; 4,13</t>
+          <t>-17,21; 3,51</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-83,06; 47,31</t>
+          <t>-82,91; 49,32</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>7,97; 17,8</t>
+          <t>7,76; 17,59</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>2,34; 11,95</t>
+          <t>2,76; 11,76</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-24,9; -5,47</t>
+          <t>-23,69; -5,18</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>14,33; 24,49</t>
+          <t>14,73; 24,4</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>9,63; 19,25</t>
+          <t>9,82; 19,64</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 4,59</t>
+          <t>-4,4; 4,67</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>12,85; 19,69</t>
+          <t>12,91; 19,63</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>7,71; 14,35</t>
+          <t>7,55; 14,48</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-16,64; -2,24</t>
+          <t>-16,8; -2,2</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>24,59; 67,03</t>
+          <t>24,19; 65,77</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>7,29; 45,16</t>
+          <t>8,57; 44,91</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-76,77; -19,53</t>
+          <t>-74,58; -18,43</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>42,39; 86,6</t>
+          <t>44,13; 86,38</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>28,89; 66,89</t>
+          <t>29,52; 69,05</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-13,77; 16,22</t>
+          <t>-12,91; 16,56</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>40,01; 70,01</t>
+          <t>40,91; 70,08</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>23,93; 50,6</t>
+          <t>23,28; 51,47</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-53,24; -7,93</t>
+          <t>-53,89; -7,54</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>13,37; 17,95</t>
+          <t>13,19; 17,96</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 4,51</t>
+          <t>-0,14; 4,29</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-20,27; -15,13</t>
+          <t>-20,26; -15,32</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>14,45; 19,47</t>
+          <t>14,81; 19,48</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>1,73; 6,38</t>
+          <t>2,01; 6,67</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-18,43; -0,03</t>
+          <t>-18,38; 2,2</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>14,77; 18,16</t>
+          <t>14,47; 18,06</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>1,38; 4,67</t>
+          <t>1,58; 4,92</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-18,18; -7,18</t>
+          <t>-18,13; -6,23</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>44,03; 63,77</t>
+          <t>42,97; 63,68</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 16,23</t>
+          <t>-0,4; 15,29</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-68,59; -54,22</t>
+          <t>-67,55; -53,93</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>40,18; 57,83</t>
+          <t>40,97; 58,15</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>4,78; 19,03</t>
+          <t>5,62; 20,09</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-52,74; 0,86</t>
+          <t>-52,56; 6,55</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>45,14; 58,5</t>
+          <t>44,71; 58,58</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>3,98; 14,9</t>
+          <t>4,83; 15,87</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-56,58; -22,66</t>
+          <t>-56,45; -19,62</t>
         </is>
       </c>
     </row>
